--- a/docentes/Mendoza Velazquez Laura Elena - Estadisticos 20202.xlsx
+++ b/docentes/Mendoza Velazquez Laura Elena - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="39">
   <si>
     <t>Mat</t>
   </si>
@@ -76,55 +76,64 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>PARRA</t>
+  </si>
+  <si>
+    <t>MARCIAL</t>
+  </si>
+  <si>
     <t>MAYAHUA</t>
   </si>
   <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>PARRA</t>
-  </si>
-  <si>
-    <t>MARCIAL</t>
+    <t>TINOCO</t>
   </si>
   <si>
     <t>TEPEPA</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>VICTORIANO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
     <t>XOCHIQUISQUI</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>VICTORIANO</t>
-  </si>
-  <si>
-    <t>MORALES</t>
+    <t>ANGELES NAHOMI</t>
   </si>
   <si>
     <t>ELELYN IVETH</t>
   </si>
   <si>
+    <t>KAREN</t>
+  </si>
+  <si>
+    <t>SUEMI</t>
+  </si>
+  <si>
+    <t>MARIAN</t>
+  </si>
+  <si>
+    <t>IVAN DE JESUS</t>
+  </si>
+  <si>
     <t>DAMARIS</t>
-  </si>
-  <si>
-    <t>KAREN</t>
-  </si>
-  <si>
-    <t>SUEMI</t>
-  </si>
-  <si>
-    <t>MARIAN</t>
-  </si>
-  <si>
-    <t>IVAN DE JESUS</t>
   </si>
 </sst>
 </file>
@@ -842,7 +851,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -877,16 +886,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920183</v>
+        <v>20330051920162</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -900,22 +909,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920137</v>
+        <v>20330051920183</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -929,10 +938,10 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -952,10 +961,10 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -972,13 +981,13 @@
         <v>20330051920184</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -998,10 +1007,10 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1010,6 +1019,29 @@
         <v>11</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
